--- a/pred_ohlcv/54_21/2019-11-20 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 XVG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>566703.0100771999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>582468.0100771999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>582468.0100771999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>577468.0100771999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>577468.0100771999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>669635.0100771999</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>435463.0100771999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>533823.9562771999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>524823.9563771999</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>468113.7358771999</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>468113.7358771999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>520888.7569771999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>464912.7569771999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>464912.7569771999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2653750.262277199</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2602408.227277199</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2602408.227277199</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2499079.632877199</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2510610.862677199</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2980747.009077199</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2894293.4436772</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2893915.4436772</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2998701.6277772</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3254306.6277772</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3242407.3082772</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3242217.1941772</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3242217.1941772</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3247217.1941772</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3262027.1941772</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3280192.00899201</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3237147.88899201</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3237242.88899201</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2860858.84899201</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2871444.49899201</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 XVG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>566703.0100771999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>582468.0100771999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>582468.0100771999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>577468.0100771999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>577468.0100771999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>669635.0100771999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>435463.0100771999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>533823.9562771999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>524823.9563771999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>468113.7358771999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>480161.7569771999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>520888.7569771999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>464912.7569771999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>464912.7569771999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2643133.010377199</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2638935.671777199</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2615935.244177199</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2655919.020777199</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2653750.262277199</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2653750.262277199</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2602408.227277199</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2602408.227277199</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2499079.632877199</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2510610.862677199</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2980747.009077199</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2893915.4436772</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3262027.1941772</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2860858.84899201</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2871444.49899201</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
